--- a/participants/participant_09/participant_09_task_orders.xlsx
+++ b/participants/participant_09/participant_09_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730299394102" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730331721053" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730331730688" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730332211185" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873033284102" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291140689345" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911428408551" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911428408551" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911429102745" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291142989275" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730299013731.csv</t>
+          <t>go_stims-16502911406334639.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730299224076.csv</t>
+          <t>GNG_stims-16502911406584082.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730299234095.csv</t>
+          <t>go_stims-16502911406594048.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730299384086.csv</t>
+          <t>GNG_stims-1650291140689345.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730308491066.csv</t>
+          <t>TB-16502911426256652.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1649873031384068.csv</t>
+          <t>ZB-match_6-16502911410207195.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498730308030748.csv</t>
+          <t>OB-16502911413472333.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-1649873030960104.csv</t>
+          <t>OB-16502911424437702.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730331140714.csv</t>
+          <t>ZB-match_2-16502911411713958.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498730331550708.csv</t>
+          <t>ZB-match_6-16502911412851353.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730319030683.csv</t>
+          <t>TB-16502911428203955.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498730313630738.csv</t>
+          <t>OB-16502911420623624.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730329460664.csv</t>
+          <t>TB-16502911427230709.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730331880682.csv</t>
+          <t>MM_stims-16502911428643274.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873033175069.csv</t>
+          <t>ZM_stims-16502911428442965.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730332041044.csv</t>
+          <t>MM_stims-1650291142895082.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730331890688.csv</t>
+          <t>ZM_stims-1650291142865334.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730332201052.csv</t>
+          <t>MM_stims-16502911429102745.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730332050686.csv</t>
+          <t>ZM_stims-16502911428960829.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730332361035.csv</t>
+          <t>vSAT_stims-1650291142973375.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730332240703.csv</t>
+          <t>vSAT_stims-16502911429427254.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730332521064.csv</t>
+          <t>SAT_stims-16502911429140556.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730332680717.csv</t>
+          <t>SAT_stims-16502911429283297.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_09/participant_09_task_orders.xlsx
+++ b/participants/participant_09/participant_09_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291140689345" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911428408551" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911428408551" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911429102745" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291142989275" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777930765538" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504777953505538" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504777953515549" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477795398555" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777954595876" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911406334639.csv</t>
+          <t>go_stims-16504777930395548.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911406584082.csv</t>
+          <t>GNG_stims-16504777930595922.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911406594048.csv</t>
+          <t>go_stims-16504777930615566.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291140689345.csv</t>
+          <t>GNG_stims-16504777930755835.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502911426256652.csv</t>
+          <t>ZB-match_5-1650477793178556.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911410207195.csv</t>
+          <t>TB-16504777950195868.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911413472333.csv</t>
+          <t>OB-1650477793469557.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16502911424437702.csv</t>
+          <t>ZB-match_4-1650477793207558.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502911411713958.csv</t>
+          <t>TB-16504777950565875.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911412851353.csv</t>
+          <t>TB-16504777953395584.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502911428203955.csv</t>
+          <t>OB-16504777936855876.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911420623624.csv</t>
+          <t>ZB-match_8-16504777932425532.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502911427230709.csv</t>
+          <t>OB-16504777935865536.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911428643274.csv</t>
+          <t>MM_stims-16504777953665552.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911428442965.csv</t>
+          <t>ZM_stims-16504777953535547.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291142895082.csv</t>
+          <t>MM_stims-16504777953825555.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291142865334.csv</t>
+          <t>ZM_stims-16504777953675532.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911429102745.csv</t>
+          <t>MM_stims-16504777953975809.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911428960829.csv</t>
+          <t>ZM_stims-16504777953825555.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291142973375.csv</t>
+          <t>SAT_stims-16504777954015532.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911429427254.csv</t>
+          <t>vSAT_stims-16504777954285896.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911429140556.csv</t>
+          <t>SAT_stims-16504777954125607.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911429283297.csv</t>
+          <t>vSAT_stims-16504777954455543.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_09/participant_09_task_orders.xlsx
+++ b/participants/participant_09/participant_09_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777930765538" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504777953505538" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504777953515549" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477795398555" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777954595876" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960819059103" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960838507922" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960838507922" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960838988266" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996083962824" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504777930395548.csv</t>
+          <t>go_stims-1650996081873912.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777930595922.csv</t>
+          <t>GNG_stims-16509960818899698.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777930615566.csv</t>
+          <t>go_stims-16509960818899698.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777930755835.csv</t>
+          <t>GNG_stims-16509960819059103.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650477793178556.csv</t>
+          <t>TB-16509960835947926.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504777950195868.csv</t>
+          <t>ZB-match_8-16509960822507892.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650477793469557.csv</t>
+          <t>TB-16509960837308228.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650477793207558.csv</t>
+          <t>ZB-match_7-16509960820988262.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504777950565875.csv</t>
+          <t>OB-16509960828187945.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504777953395584.csv</t>
+          <t>OB-16509960826028001.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504777936855876.csv</t>
+          <t>ZB-match_5-16509960825468018.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_8-16504777932425532.csv</t>
+          <t>TB-16509960838268182.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504777935865536.csv</t>
+          <t>OB-16509960834588234.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777953665552.csv</t>
+          <t>MM_stims-1650996083866796.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777953535547.csv</t>
+          <t>ZM_stims-16509960838507922.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504777953825555.csv</t>
+          <t>MM_stims-16509960838827925.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777953675532.csv</t>
+          <t>ZM_stims-1650996083866796.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504777953975809.csv</t>
+          <t>MM_stims-16509960838988266.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777953825555.csv</t>
+          <t>ZM_stims-16509960838827925.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777954015532.csv</t>
+          <t>SAT_stims-16509960838988266.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777954285896.csv</t>
+          <t>vSAT_stims-16509960839308276.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777954125607.csv</t>
+          <t>SAT_stims-1650996083914826.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777954455543.csv</t>
+          <t>vSAT_stims-16509960839468222.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_09/participant_09_task_orders.xlsx
+++ b/participants/participant_09/participant_09_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960819059103" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960838507922" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960838507922" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960838988266" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996083962824" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168669926379" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686740521245" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686740521245" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686741009889" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686741615906" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996081873912.csv</t>
+          <t>go_stims-16511686698866572.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960818899698.csv</t>
+          <t>GNG_stims-16511686699108255.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960818899698.csv</t>
+          <t>go_stims-16511686699118295.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960819059103.csv</t>
+          <t>GNG_stims-16511686699253788.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509960835947926.csv</t>
+          <t>ZB-match_8-16511686701473618.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_8-16509960822507892.csv</t>
+          <t>TB-16511686740250905.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509960837308228.csv</t>
+          <t>ZB-match_1-1651168670245801.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16509960820988262.csv</t>
+          <t>OB-16511686711908796.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509960828187945.csv</t>
+          <t>ZB-match_7-16511686699808261.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509960826028001.csv</t>
+          <t>TB-16511686717115793.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509960825468018.csv</t>
+          <t>OB-16511686709281902.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509960838268182.csv</t>
+          <t>TB-16511686735301046.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509960834588234.csv</t>
+          <t>OB-1651168670329121.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996083866796.csv</t>
+          <t>MM_stims-16511686740685406.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960838507922.csv</t>
+          <t>ZM_stims-1651168674055434.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960838827925.csv</t>
+          <t>MM_stims-16511686740842102.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996083866796.csv</t>
+          <t>ZM_stims-16511686740695448.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960838988266.csv</t>
+          <t>MM_stims-16511686741000202.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960838827925.csv</t>
+          <t>ZM_stims-16511686740851789.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960838988266.csv</t>
+          <t>SAT_stims-16511686741040103.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960839308276.csv</t>
+          <t>vSAT_stims-16511686741468241.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996083914826.csv</t>
+          <t>vSAT_stims-16511686741317866.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960839468222.csv</t>
+          <t>SAT_stims-16511686741154182.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_09/participant_09_task_orders.xlsx
+++ b/participants/participant_09/participant_09_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168669926379" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686740521245" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686740521245" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686741009889" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686741615906" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555040398927" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555072088923" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555072148976" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555072738988" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555073508916" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686698866572.csv</t>
+          <t>go_stims-16512555040108953.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686699108255.csv</t>
+          <t>GNG_stims-16512555040238945.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686699118295.csv</t>
+          <t>go_stims-16512555040248947.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686699253788.csv</t>
+          <t>GNG_stims-16512555040388925.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511686701473618.csv</t>
+          <t>OB-16512555056738968.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511686740250905.csv</t>
+          <t>OB-16512555055208926.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651168670245801.csv</t>
+          <t>ZB-match_4-16512555051328924.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511686711908796.csv</t>
+          <t>TB-16512555060848963.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511686699808261.csv</t>
+          <t>OB-16512555051628928.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511686717115793.csv</t>
+          <t>TB-16512555071908922.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511686709281902.csv</t>
+          <t>TB-16512555068078933.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511686735301046.csv</t>
+          <t>ZB-match_1-16512555048598917.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651168670329121.csv</t>
+          <t>ZB-match_1-16512555041478963.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686740685406.csv</t>
+          <t>MM_stims-16512555072398922.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168674055434.csv</t>
+          <t>ZM_stims-16512555072178936.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686740842102.csv</t>
+          <t>MM_stims-16512555072558925.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686740695448.csv</t>
+          <t>ZM_stims-16512555072398922.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686741000202.csv</t>
+          <t>MM_stims-16512555072718935.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686740851789.csv</t>
+          <t>ZM_stims-1651255507256895.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686741040103.csv</t>
+          <t>SAT_stims-16512555072798939.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686741468241.csv</t>
+          <t>vSAT_stims-16512555073348927.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686741317866.csv</t>
+          <t>vSAT_stims-16512555073188946.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686741154182.csv</t>
+          <t>SAT_stims-16512555073038914.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_09/participant_09_task_orders.xlsx
+++ b/participants/participant_09/participant_09_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555040398927" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555072088923" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555072148976" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555072738988" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555073508916" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889312651088" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-16515889312700062" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-16515889313135014" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515889331621997" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TOL_TO-16515889332270248" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555040108953.csv</t>
+          <t>vSAT_stims-16515889312488773.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555040238945.csv</t>
+          <t>vSAT_stims-16515889312334793.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555040248947.csv</t>
+          <t>SAT_stims-1651588931218104.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555040388925.csv</t>
+          <t>SAT_stims-16515889312043374.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515889312738192.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889312976053.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515889312985995.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889313123982.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555056738968.csv</t>
+          <t>ZB-match_2-16515889321494348.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555055208926.csv</t>
+          <t>ZB-match_7-16515889321109223.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512555051328924.csv</t>
+          <t>TB-16515889327464545.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555060848963.csv</t>
+          <t>ZB-match_1-16515889313326857.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512555051628928.csv</t>
+          <t>TB-1651588932843642.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555071908922.csv</t>
+          <t>OB-1651588932375385.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16512555068078933.csv</t>
+          <t>TB-16515889331385667.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555048598917.csv</t>
+          <t>OB-16515889326506908.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555041478963.csv</t>
+          <t>OB-1651588932687131.csv</t>
         </is>
       </c>
     </row>
@@ -605,53 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555072398922.csv</t>
+          <t>MM_stims-16515889331941006.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555072178936.csv</t>
+          <t>ZM_stims-16515889331692379.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +764,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555072558925.csv</t>
+          <t>MM_stims-16515889332102146.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +774,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555072398922.csv</t>
+          <t>ZM_stims-16515889331941006.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +784,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555072718935.csv</t>
+          <t>MM_stims-16515889332260518.csv</t>
         </is>
       </c>
     </row>
@@ -728,73 +794,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255507256895.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555072798939.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555073348927.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555073188946.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555073038914.csv</t>
+          <t>ZM_stims-16515889332112284.csv</t>
         </is>
       </c>
     </row>
